--- a/Dokumente/Zeiterfassung/Zeiterfassung_Dusanic.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Dusanic.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C899CC-990E-4462-8BAC-405715A2B757}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>Stunden</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Art</t>
   </si>
@@ -63,13 +61,22 @@
   </si>
   <si>
     <t xml:space="preserve">Besprechung von Sollzeiten von Funktionen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stunden </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +124,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -141,10 +155,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -167,8 +182,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -207,17 +227,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle35" displayName="Tabelle35" ref="B6:G46" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B6:G46"/>
-  <tableColumns count="6">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="6" name="Stunden" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle35" displayName="Tabelle35" ref="B6:H46" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B6:H46" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Zeit " dataDxfId="0">
       <calculatedColumnFormula>F7-E7</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="1" xr3:uid="{AAD9903C-5C6B-4B08-B3A3-A75278B117C6}" name="Stunden "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -519,11 +540,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD204"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,49 +558,52 @@
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
       </c>
       <c r="D7" s="11">
         <v>43171</v>
@@ -594,13 +618,16 @@
         <f t="shared" ref="G7:G45" si="0">F7-E7</f>
         <v>4.166666666666663E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
       </c>
       <c r="D8" s="11">
         <v>43178</v>
@@ -615,13 +642,16 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="11">
         <v>43179</v>
@@ -636,8 +666,11 @@
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="12">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -646,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -655,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -664,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -673,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -682,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -691,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -844,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -853,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -862,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -871,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -880,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -889,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -898,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -907,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -916,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -925,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -934,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -943,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -952,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -961,17 +994,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="10">
-        <f>SUM(G7:G45)</f>
-        <v>0.15625</v>
+      <c r="G46" s="10"/>
+      <c r="H46" s="13">
+        <f>SUM(H7:H45)</f>
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Dusanic.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Dusanic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C899CC-990E-4462-8BAC-405715A2B757}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221EB957-53A8-4525-AE3C-47BEC24F1A49}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Art</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t xml:space="preserve">Stunden </t>
+  </si>
+  <si>
+    <t>Ausarbeitung der Grundfunktion  - Erstellen von Projekten -</t>
+  </si>
+  <si>
+    <t>Ausarbeitung Grundfunktionen</t>
   </si>
 </sst>
 </file>
@@ -543,39 +549,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="81.5546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -622,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -646,7 +652,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -670,16 +676,31 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="11">
+        <v>43196</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.75</v>
+      </c>
       <c r="G10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -688,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -697,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -706,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -715,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -724,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -733,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -742,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -751,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -760,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -769,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -778,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -787,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -796,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -805,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -814,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -823,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -832,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -841,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -850,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -859,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -868,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -877,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -886,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -895,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -904,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -913,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -922,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -931,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -940,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -949,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -958,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -967,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -976,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -985,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -994,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>5</v>
       </c>
@@ -1005,7 +1026,7 @@
       <c r="G46" s="10"/>
       <c r="H46" s="13">
         <f>SUM(H7:H45)</f>
-        <v>3.75</v>
+        <v>11.75</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Dusanic.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Dusanic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221EB957-53A8-4525-AE3C-47BEC24F1A49}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEF7280-982D-4A03-B425-62C48A6EB52E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Art</t>
   </si>
@@ -69,10 +69,13 @@
     <t xml:space="preserve">Stunden </t>
   </si>
   <si>
-    <t>Ausarbeitung der Grundfunktion  - Erstellen von Projekten -</t>
-  </si>
-  <si>
     <t>Ausarbeitung Grundfunktionen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausarbeitung der Grundfunktion: Erstellen von Projekten </t>
+  </si>
+  <si>
+    <t>Ausarbeitung der Grundfunktionen: Erstellen von Projekten, Projektbeschreibung hinzufügen</t>
   </si>
 </sst>
 </file>
@@ -550,7 +553,7 @@
   <dimension ref="B2:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,10 +681,10 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
       </c>
       <c r="D10" s="11">
         <v>43196</v>
@@ -701,12 +704,27 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11">
+        <v>43199</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1026,7 +1044,7 @@
       <c r="G46" s="10"/>
       <c r="H46" s="13">
         <f>SUM(H7:H45)</f>
-        <v>11.75</v>
+        <v>16.75</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Dusanic.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Dusanic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEF7280-982D-4A03-B425-62C48A6EB52E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAAAB3C-7226-4BD4-B42C-772ED57DE3DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Art</t>
   </si>
@@ -728,12 +728,27 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11">
+        <v>43200</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.625</v>
+      </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
@@ -1044,7 +1059,7 @@
       <c r="G46" s="10"/>
       <c r="H46" s="13">
         <f>SUM(H7:H45)</f>
-        <v>16.75</v>
+        <v>19.75</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Dusanic.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Dusanic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAAAB3C-7226-4BD4-B42C-772ED57DE3DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0964A1B-1BF3-4BE4-A7F4-08291510797E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Art</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Ausarbeitung der Grundfunktionen: Erstellen von Projekten, Projektbeschreibung hinzufügen</t>
+  </si>
+  <si>
+    <t>Ausarbeitung der Grundfunktionen: Erstellen von Aufgabenbereichen, Beschreibung hinzufügen</t>
   </si>
 </sst>
 </file>
@@ -552,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,12 +755,27 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="11">
+        <v>43201</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.23958333333333331</v>
+      </c>
+      <c r="H13">
+        <v>5.45</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -1059,7 +1077,7 @@
       <c r="G46" s="10"/>
       <c r="H46" s="13">
         <f>SUM(H7:H45)</f>
-        <v>19.75</v>
+        <v>25.2</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Dusanic.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Dusanic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0964A1B-1BF3-4BE4-A7F4-08291510797E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7186C2F4-38CE-450E-AA62-80929EAC7F24}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,38 +556,38 @@
   <dimension ref="B2:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="81.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="81.5703125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -658,7 +658,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -682,7 +682,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -706,7 +706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -730,7 +730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -754,7 +754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -775,10 +775,10 @@
         <v>0.23958333333333331</v>
       </c>
       <c r="H13">
-        <v>5.45</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>5</v>
       </c>
@@ -1077,7 +1077,7 @@
       <c r="G46" s="10"/>
       <c r="H46" s="13">
         <f>SUM(H7:H45)</f>
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Dusanic.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Dusanic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7186C2F4-38CE-450E-AA62-80929EAC7F24}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B808C91D-E176-469A-BB56-94D70BA80509}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Art</t>
   </si>
@@ -79,6 +79,24 @@
   </si>
   <si>
     <t>Ausarbeitung der Grundfunktionen: Erstellen von Aufgabenbereichen, Beschreibung hinzufügen</t>
+  </si>
+  <si>
+    <t>KW11</t>
+  </si>
+  <si>
+    <t>KW12</t>
+  </si>
+  <si>
+    <t>KW13</t>
+  </si>
+  <si>
+    <t>KW14</t>
+  </si>
+  <si>
+    <t>Gruppen Meeting</t>
+  </si>
+  <si>
+    <t>KW15</t>
   </si>
 </sst>
 </file>
@@ -158,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -166,12 +184,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -198,6 +236,22 @@
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -239,8 +293,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle35" displayName="Tabelle35" ref="B6:H46" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B6:H46" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle35" displayName="Tabelle35" ref="B6:H47" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B6:H47" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
@@ -553,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H46"/>
+  <dimension ref="B2:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,24 +624,24 @@
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,31 +664,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="14">
         <v>43171</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="15">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="15">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G7" s="7">
-        <f t="shared" ref="G7:G45" si="0">F7-E7</f>
+      <c r="G7" s="15">
+        <f t="shared" ref="G7:G46" si="0">F7-E7</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="17"/>
+      <c r="J7" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -657,80 +715,83 @@
       <c r="H8" s="12">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="14">
         <v>43179</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="15">
         <v>0.63541666666666663</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="15">
         <v>0.6875</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="15">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="16">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15">
+        <f>F10-E10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="18">
         <v>43196</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F11" s="19">
         <v>0.75</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G11" s="19">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H10">
+      <c r="H11" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="11">
-        <v>43199</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="0"/>
-        <v>0.20833333333333331</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="20"/>
+      <c r="J11" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -738,65 +799,97 @@
         <v>16</v>
       </c>
       <c r="D12" s="11">
-        <v>43200</v>
+        <v>43199</v>
       </c>
       <c r="E12" s="7">
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F12" s="7">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="H12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11">
+        <v>43200</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <v>43201</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
         <v>0.42708333333333331</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>0.23958333333333331</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>5.75</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="11">
+        <v>43202</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.5</v>
+      </c>
       <c r="G15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -1067,17 +1160,26 @@
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="8" t="s">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="13">
-        <f>SUM(H7:H45)</f>
-        <v>25.5</v>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="13">
+        <f>SUM(H7:H46)</f>
+        <v>27.5</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Dusanic.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Dusanic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B808C91D-E176-469A-BB56-94D70BA80509}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D5659D-A2A1-40EA-836F-8AED52EBFB56}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Art</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>KW15</t>
+  </si>
+  <si>
+    <t>Ausarbeitung der Grundfunktionen: Sollzeit/Istzeiterfassung</t>
   </si>
 </sst>
 </file>
@@ -609,39 +612,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="81.5546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
         <v>9</v>
       </c>
@@ -692,7 +695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -719,7 +722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
@@ -745,7 +748,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="14"/>
@@ -763,7 +766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
         <v>14</v>
       </c>
@@ -791,7 +794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -818,7 +821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -842,7 +845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -866,7 +869,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -889,16 +892,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="11">
+        <v>43205</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+        <v>0.125</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -907,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -916,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -925,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -934,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -943,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -952,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -961,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -970,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -979,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -988,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -997,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -1006,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -1015,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -1024,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -1033,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -1042,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -1051,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -1060,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -1069,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -1078,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -1087,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -1096,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -1105,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -1114,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -1123,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -1132,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -1141,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -1150,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -1159,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -1168,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>5</v>
       </c>
@@ -1179,7 +1197,7 @@
       <c r="G47" s="10"/>
       <c r="H47" s="13">
         <f>SUM(H7:H46)</f>
-        <v>27.5</v>
+        <v>30.5</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Dusanic.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Dusanic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D5659D-A2A1-40EA-836F-8AED52EBFB56}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706B044E-B4F3-48F6-B229-7ACE289F79DF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Art</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Ausarbeitung der Grundfunktionen: Sollzeit/Istzeiterfassung</t>
+  </si>
+  <si>
+    <t>KW16</t>
   </si>
 </sst>
 </file>
@@ -613,38 +616,38 @@
   <dimension ref="B2:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="81.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="81.5703125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>9</v>
       </c>
@@ -695,7 +698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -722,7 +725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
@@ -748,7 +751,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="14"/>
@@ -766,7 +769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>14</v>
       </c>
@@ -794,7 +797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -821,7 +824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -845,7 +848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -869,7 +872,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -892,40 +895,60 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="14">
         <v>43205</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="15">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="15">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="15">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="17">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="11">
+        <v>43208</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="H17" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -934,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -943,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -952,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -961,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -970,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -979,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -988,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -997,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1006,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -1015,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -1024,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -1033,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -1042,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -1051,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -1060,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -1069,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -1078,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -1087,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -1096,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -1105,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -1114,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -1123,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -1132,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -1141,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -1150,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -1159,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -1168,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -1177,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -1186,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>5</v>
       </c>
@@ -1197,7 +1220,7 @@
       <c r="G47" s="10"/>
       <c r="H47" s="13">
         <f>SUM(H7:H46)</f>
-        <v>30.5</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Dusanic.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Dusanic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706B044E-B4F3-48F6-B229-7ACE289F79DF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1B0170-9146-4767-A25B-7480B0EA449F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -258,6 +258,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -615,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +792,7 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="24">
         <v>8</v>
       </c>
       <c r="I11" s="20"/>
@@ -817,7 +820,7 @@
         <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="22">
         <v>5</v>
       </c>
       <c r="J12" s="21" t="s">
@@ -844,7 +847,7 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="22">
         <v>3</v>
       </c>
     </row>
@@ -868,7 +871,7 @@
         <f t="shared" si="0"/>
         <v>0.23958333333333331</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="22">
         <v>5.75</v>
       </c>
     </row>
@@ -891,7 +894,7 @@
       <c r="G15" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="22">
         <v>2</v>
       </c>
     </row>
@@ -915,7 +918,7 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <v>3</v>
       </c>
       <c r="I16" s="17"/>
@@ -941,7 +944,7 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666669</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="22">
         <v>2.5</v>
       </c>
       <c r="J17" t="s">
@@ -956,6 +959,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D19" s="6"/>
@@ -965,6 +969,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D20" s="6"/>
